--- a/ClassWork/E_Commerce.xlsx
+++ b/ClassWork/E_Commerce.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT\Desktop\ANUDIP\ClassWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT\Desktop\ANUDIP\AmitAnudipAF057117047\ClassWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AFA820-6C78-4CF7-8BB5-DD3DBD5CAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44ECC8-3CE0-423B-9C90-67DDDFC8E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CE48592-67DA-4AFC-90C2-FAB71330BA3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2CE48592-67DA-4AFC-90C2-FAB71330BA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8125D61F-E79A-4686-B365-3C68CD980ACE}">
   <dimension ref="A1:X373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView topLeftCell="I360" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1752,7 +1751,7 @@
       <c r="V14" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" t="s">
         <v>25</v>
       </c>
       <c r="X14">
@@ -2719,7 +2718,7 @@
       <c r="V27" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" t="s">
         <v>25</v>
       </c>
       <c r="X27">
@@ -26303,7 +26302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFB4BAF-F33E-4624-A034-E66BF613B88F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
